--- a/BalanceSheet/DXCM_bal.xlsx
+++ b/BalanceSheet/DXCM_bal.xlsx
@@ -507,19 +507,19 @@
         <v>289700000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-33600000.0</v>
+        <v>235000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-35400000.0</v>
+        <v>201000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-23300000.0</v>
+        <v>165000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-22200000.0</v>
+        <v>142000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>600000.0</v>
+        <v>120000000.0</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>120400000.0</v>
@@ -2007,19 +2007,19 @@
         <v>502600000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>67900000.0</v>
+        <v>163000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>69800000.0</v>
+        <v>148000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>51500000.0</v>
+        <v>108000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>5300000.0</v>
+        <v>110000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>30800000.0</v>
+        <v>102000000.0</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>232400000.0</v>
@@ -3211,7 +3211,7 @@
         </is>
       </c>
       <c r="C22" s="0" t="n">
-        <v>-277300000.0</v>
+        <v>-216000000.0</v>
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
@@ -4994,10 +4994,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B35" s="0" t="n">
+        <v>-943800000.0</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>-868000000.0</v>
@@ -5123,10 +5121,8 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B36" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B36" s="0" t="n">
+        <v>1688800000.0</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1840000000.0</v>
